--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111232569</v>
+        <v>111234523</v>
       </c>
       <c r="B2" t="n">
-        <v>78081</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>374784.9101014594</v>
+        <v>374912.3124199872</v>
       </c>
       <c r="R2" t="n">
-        <v>6871121.416580504</v>
+        <v>6871174.188302284</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>18:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -910,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111233604</v>
+        <v>111232569</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>78081</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,49 +926,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Smolbäcken, Dlr</t>
+          <t>Smolbäcken , Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>374894.0328106415</v>
+        <v>374784.9101014594</v>
       </c>
       <c r="R4" t="n">
-        <v>6871113.164681672</v>
+        <v>6871121.416580504</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -997,7 +988,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1007,12 +998,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:15</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Hackmärken på tall</t>
+          <t>17:35</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1039,7 +1025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111234523</v>
+        <v>111233768</v>
       </c>
       <c r="B5" t="n">
         <v>90666</v>
@@ -1078,17 +1064,17 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Smolbäcken , Dlr</t>
+          <t>Smolbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>374912.3124199872</v>
+        <v>374893.0173954847</v>
       </c>
       <c r="R5" t="n">
-        <v>6871174.188302284</v>
+        <v>6871124.034136346</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1117,7 +1103,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1127,7 +1113,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>18:52</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1154,10 +1140,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111233768</v>
+        <v>111233604</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,30 +1152,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1197,13 +1192,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>374893.0173954847</v>
+        <v>374894.0328106415</v>
       </c>
       <c r="R6" t="n">
-        <v>6871124.034136346</v>
+        <v>6871113.164681672</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1232,7 +1227,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1242,7 +1237,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>18:20</t>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Hackmärken på tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1678,10 +1678,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111346661</v>
+        <v>111348142</v>
       </c>
       <c r="B10" t="n">
-        <v>90854</v>
+        <v>89646</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1690,25 +1690,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2079</v>
+        <v>65</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>374943.5121711227</v>
+        <v>374924.2261946606</v>
       </c>
       <c r="R10" t="n">
-        <v>6871150.435782712</v>
+        <v>6871177.518043431</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1770,12 +1770,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Växer under kolad tallåga.</t>
+          <t>Växer på undersidan av kolad stubbe.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Lavhedtallskog</t>
+          <t>Tallnaturskog</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1828,10 +1828,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111348142</v>
+        <v>111346661</v>
       </c>
       <c r="B11" t="n">
-        <v>89646</v>
+        <v>90854</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1840,25 +1840,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>2079</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>374924.2261946606</v>
+        <v>374943.5121711227</v>
       </c>
       <c r="R11" t="n">
-        <v>6871177.518043431</v>
+        <v>6871150.435782712</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Växer på undersidan av kolad stubbe.</t>
+          <t>Växer under kolad tallåga.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Tallnaturskog</t>
+          <t>Lavhedtallskog</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">

--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -1269,7 +1269,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111242384</v>
+        <v>111231580</v>
       </c>
       <c r="B7" t="n">
         <v>90712</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1316,14 +1316,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Smolbäcken, Vassbo  Idre, Dlr</t>
+          <t>Smolbäcken, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>374970.3566506885</v>
+        <v>374844.9103718154</v>
       </c>
       <c r="R7" t="n">
-        <v>6871110.830747669</v>
+        <v>6871047.151478641</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Växer under kolat rotben av tall i sluttning mot myr.</t>
+          <t>Växer under kolat rotben av tall.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1408,7 +1408,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111231580</v>
+        <v>111242384</v>
       </c>
       <c r="B8" t="n">
         <v>90712</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1455,14 +1455,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Smolbäcken, Dlr</t>
+          <t>Smolbäcken, Vassbo  Idre, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>374844.9103718154</v>
+        <v>374970.3566506885</v>
       </c>
       <c r="R8" t="n">
-        <v>6871047.151478641</v>
+        <v>6871110.830747669</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Växer under kolat rotben av tall.</t>
+          <t>Växer under kolat rotben av tall i sluttning mot myr.</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -1547,10 +1547,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111347129</v>
+        <v>111346661</v>
       </c>
       <c r="B9" t="n">
-        <v>89558</v>
+        <v>90854</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1559,29 +1559,33 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1503</v>
+        <v>2079</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1590,10 +1594,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>374906.6340946074</v>
+        <v>374943.5121711227</v>
       </c>
       <c r="R9" t="n">
-        <v>6871148.023486386</v>
+        <v>6871150.435782712</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1625,7 +1629,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1635,12 +1639,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Växer under kolad tallgren</t>
+          <t>Växer under kolad tallåga.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1660,7 +1664,22 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Tallskog. Kontinuitetsskog</t>
+          <t>Lavhedtallskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1678,10 +1697,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111348142</v>
+        <v>111347129</v>
       </c>
       <c r="B10" t="n">
-        <v>89646</v>
+        <v>89558</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1694,29 +1713,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>1503</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1725,10 +1740,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>374924.2261946606</v>
+        <v>374906.6340946074</v>
       </c>
       <c r="R10" t="n">
-        <v>6871177.518043431</v>
+        <v>6871148.023486386</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1760,7 +1775,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1770,12 +1785,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Växer på undersidan av kolad stubbe.</t>
+          <t>Växer under kolad tallgren</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1795,22 +1810,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Tallnaturskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
+          <t>Tallskog. Kontinuitetsskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111346661</v>
+        <v>111348142</v>
       </c>
       <c r="B11" t="n">
-        <v>90854</v>
+        <v>89646</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1840,25 +1840,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2079</v>
+        <v>65</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>374943.5121711227</v>
+        <v>374924.2261946606</v>
       </c>
       <c r="R11" t="n">
-        <v>6871150.435782712</v>
+        <v>6871177.518043431</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Växer under kolad tallåga.</t>
+          <t>Växer på undersidan av kolad stubbe.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Lavhedtallskog</t>
+          <t>Tallnaturskog</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">

--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1976,6 +1976,369 @@
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112182046</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>374849.6512867718</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6871060.635308203</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112182730</v>
+      </c>
+      <c r="B13" t="n">
+        <v>95538</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>375047.1980067284</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6871263.893339855</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112181852</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77550</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>185</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Vassbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>374953.8252938317</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6870891.962659046</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Älvdalen</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Idre</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -2022,10 +2022,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>374849.6512867718</v>
+        <v>374850</v>
       </c>
       <c r="R12" t="n">
-        <v>6871060.635308203</v>
+        <v>6871061</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2055,19 +2055,9 @@
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-07-07</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2143,10 +2133,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>375047.1980067284</v>
+        <v>375047</v>
       </c>
       <c r="R13" t="n">
-        <v>6871263.893339855</v>
+        <v>6871264</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2176,19 +2166,9 @@
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-07-07</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2264,10 +2244,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>374953.8252938317</v>
+        <v>374954</v>
       </c>
       <c r="R14" t="n">
-        <v>6870891.962659046</v>
+        <v>6870892</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2297,19 +2277,9 @@
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-07-07</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">

--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -1978,10 +1978,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112182046</v>
+        <v>112181852</v>
       </c>
       <c r="B12" t="n">
-        <v>90678</v>
+        <v>77671</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1990,25 +1990,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>185</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2022,10 +2022,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>374850</v>
+        <v>374954</v>
       </c>
       <c r="R12" t="n">
-        <v>6871061</v>
+        <v>6870892</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112182730</v>
+        <v>112182046</v>
       </c>
       <c r="B13" t="n">
-        <v>95538</v>
+        <v>90812</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2105,21 +2105,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>375047</v>
+        <v>374850</v>
       </c>
       <c r="R13" t="n">
-        <v>6871264</v>
+        <v>6871061</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112181852</v>
+        <v>112182730</v>
       </c>
       <c r="B14" t="n">
-        <v>77550</v>
+        <v>95693</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2212,25 +2212,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>221941</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>374954</v>
+        <v>375047</v>
       </c>
       <c r="R14" t="n">
-        <v>6870892</v>
+        <v>6871264</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>

--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -1981,7 +1981,7 @@
         <v>112181852</v>
       </c>
       <c r="B12" t="n">
-        <v>77671</v>
+        <v>77685</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112182046</v>
+        <v>112182730</v>
       </c>
       <c r="B13" t="n">
-        <v>90812</v>
+        <v>95707</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2105,21 +2105,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>221941</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>374850</v>
+        <v>375047</v>
       </c>
       <c r="R13" t="n">
-        <v>6871061</v>
+        <v>6871264</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112182730</v>
+        <v>112182046</v>
       </c>
       <c r="B14" t="n">
-        <v>95693</v>
+        <v>90826</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2216,21 +2216,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>375047</v>
+        <v>374850</v>
       </c>
       <c r="R14" t="n">
-        <v>6871264</v>
+        <v>6871061</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>

--- a/artfynd/A 32114-2023.xlsx
+++ b/artfynd/A 32114-2023.xlsx
@@ -2089,10 +2089,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112182730</v>
+        <v>112182046</v>
       </c>
       <c r="B13" t="n">
-        <v>95707</v>
+        <v>90826</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2105,21 +2105,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>375047</v>
+        <v>374850</v>
       </c>
       <c r="R13" t="n">
-        <v>6871264</v>
+        <v>6871061</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112182046</v>
+        <v>112182730</v>
       </c>
       <c r="B14" t="n">
-        <v>90826</v>
+        <v>95707</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2216,21 +2216,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>221941</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>374850</v>
+        <v>375047</v>
       </c>
       <c r="R14" t="n">
-        <v>6871061</v>
+        <v>6871264</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
